--- a/Kaoyan/学科评估.xlsx
+++ b/Kaoyan/学科评估.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\GITHUB\MyNotes\一研为定\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\GITHUB\MyNotes\Kaoyan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A2AE71-BCF7-41D7-9A91-9AF107A4173E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280D0E03-91D9-4461-BA08-D0A53EE480B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{37BCE497-CDEA-4D07-8C24-EFE8481C969A}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="268">
   <si>
     <t>排名</t>
   </si>
@@ -1432,12 +1432,94 @@
     <t>西南大学</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>上海</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>交通大学</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>北京</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>理工大学</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>吉林</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大学</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>山东</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大学</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>四川</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大学</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1528,8 +1610,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1539,6 +1637,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1714,7 +1817,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1724,8 +1827,11 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1816,8 +1922,21 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="差" xfId="3" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="好" xfId="2" builtinId="26"/>
@@ -6769,8 +6888,8 @@
   <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I62" sqref="I62"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6791,18 +6910,18 @@
       <c r="C1" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="E1" s="25">
+      <c r="E1" s="30">
         <v>2021</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="J1" s="25">
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="J1" s="30">
         <v>2021</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
@@ -6834,7 +6953,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="31" t="s">
         <v>192</v>
       </c>
       <c r="B3" s="17" t="s">
@@ -6853,7 +6972,7 @@
       <c r="M3" s="18"/>
     </row>
     <row r="4" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="31" t="s">
         <v>188</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -6861,6 +6980,9 @@
       </c>
       <c r="C4" s="18" t="s">
         <v>197</v>
+      </c>
+      <c r="D4">
+        <v>408</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
@@ -6871,15 +6993,18 @@
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
     </row>
-    <row r="5" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>193</v>
+    <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
+        <v>263</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>201</v>
+      </c>
+      <c r="D5">
+        <v>408</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
@@ -6890,8 +7015,8 @@
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
     </row>
-    <row r="6" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="17" t="s">
@@ -6899,6 +7024,9 @@
       </c>
       <c r="C6" s="18" t="s">
         <v>203</v>
+      </c>
+      <c r="D6">
+        <v>408</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
@@ -6910,7 +7038,7 @@
       <c r="M6" s="18"/>
     </row>
     <row r="7" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="31" t="s">
         <v>191</v>
       </c>
       <c r="B7" s="17" t="s">
@@ -6918,6 +7046,9 @@
       </c>
       <c r="C7" s="18" t="s">
         <v>215</v>
+      </c>
+      <c r="D7">
+        <v>408</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
@@ -6929,7 +7060,7 @@
       <c r="M7" s="18"/>
     </row>
     <row r="8" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="31" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="17" t="s">
@@ -6967,8 +7098,8 @@
       <c r="M9" s="18"/>
     </row>
     <row r="10" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>187</v>
+      <c r="A10" s="32" t="s">
+        <v>264</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>17</v>
@@ -6992,7 +7123,7 @@
       <c r="M10" s="18"/>
     </row>
     <row r="11" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="31" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="17" t="s">
@@ -7011,8 +7142,8 @@
       <c r="M11" s="18"/>
     </row>
     <row r="12" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>194</v>
+      <c r="A12" s="32" t="s">
+        <v>265</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>17</v>
@@ -7030,7 +7161,7 @@
       <c r="M12" s="18"/>
     </row>
     <row r="13" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="31" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="17" t="s">
@@ -7049,7 +7180,7 @@
       <c r="M13" s="18"/>
     </row>
     <row r="14" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="31" t="s">
         <v>216</v>
       </c>
       <c r="B14" s="17" t="s">
@@ -7057,6 +7188,9 @@
       </c>
       <c r="C14" s="18" t="s">
         <v>218</v>
+      </c>
+      <c r="D14">
+        <v>408</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
@@ -7068,7 +7202,7 @@
       <c r="M14" s="18"/>
     </row>
     <row r="15" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="31" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -7076,6 +7210,9 @@
       </c>
       <c r="C15" s="18" t="s">
         <v>207</v>
+      </c>
+      <c r="D15">
+        <v>408</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
@@ -7087,7 +7224,7 @@
       <c r="M15" s="18"/>
     </row>
     <row r="16" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="31" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="17" t="s">
@@ -7114,7 +7251,7 @@
       <c r="M16" s="18"/>
     </row>
     <row r="17" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="31" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="17" t="s">
@@ -7139,7 +7276,7 @@
       <c r="M17" s="18"/>
     </row>
     <row r="18" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="31" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="17" t="s">
@@ -7185,7 +7322,7 @@
       <c r="M19" s="18"/>
     </row>
     <row r="20" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="31" t="s">
         <v>189</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -7193,6 +7330,9 @@
       </c>
       <c r="C20" s="18" t="s">
         <v>197</v>
+      </c>
+      <c r="D20">
+        <v>408</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>248</v>
@@ -7248,7 +7388,7 @@
       <c r="M22" s="18"/>
     </row>
     <row r="23" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="31" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="17" t="s">
@@ -7256,6 +7396,9 @@
       </c>
       <c r="C23" s="18" t="s">
         <v>211</v>
+      </c>
+      <c r="D23">
+        <v>408</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>248</v>
@@ -7292,7 +7435,7 @@
       <c r="M24" s="18"/>
     </row>
     <row r="25" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="31" t="s">
         <v>190</v>
       </c>
       <c r="B25" s="17" t="s">
@@ -7335,10 +7478,10 @@
       <c r="J26" s="18"/>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
+      <c r="M26" s="25"/>
     </row>
     <row r="27" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="31" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="17" t="s">
@@ -7346,6 +7489,9 @@
       </c>
       <c r="C27" s="18" t="s">
         <v>201</v>
+      </c>
+      <c r="D27">
+        <v>408</v>
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
@@ -7357,7 +7503,7 @@
       <c r="M27" s="18"/>
     </row>
     <row r="28" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="31" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="17" t="s">
@@ -7454,7 +7600,7 @@
       <c r="M32" s="18"/>
     </row>
     <row r="33" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="31" t="s">
         <v>44</v>
       </c>
       <c r="B33" s="17" t="s">
@@ -7462,6 +7608,9 @@
       </c>
       <c r="C33" s="18" t="s">
         <v>224</v>
+      </c>
+      <c r="D33">
+        <v>408</v>
       </c>
       <c r="E33" s="18"/>
       <c r="F33" s="18">
@@ -7479,14 +7628,17 @@
       <c r="M33" s="18"/>
     </row>
     <row r="34" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
-        <v>182</v>
+      <c r="A34" s="33" t="s">
+        <v>266</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>226</v>
+      </c>
+      <c r="D34">
+        <v>408</v>
       </c>
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
@@ -7519,7 +7671,7 @@
       <c r="M35" s="18"/>
     </row>
     <row r="36" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="31" t="s">
         <v>47</v>
       </c>
       <c r="B36" s="17" t="s">
@@ -7527,6 +7679,9 @@
       </c>
       <c r="C36" s="18" t="s">
         <v>236</v>
+      </c>
+      <c r="D36">
+        <v>408</v>
       </c>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
@@ -7538,7 +7693,7 @@
       <c r="M36" s="18"/>
     </row>
     <row r="37" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="31" t="s">
         <v>48</v>
       </c>
       <c r="B37" s="17" t="s">
@@ -7546,6 +7701,9 @@
       </c>
       <c r="C37" s="18" t="s">
         <v>236</v>
+      </c>
+      <c r="D37">
+        <v>408</v>
       </c>
       <c r="E37" s="18"/>
       <c r="F37" s="18"/>
@@ -7557,8 +7715,8 @@
       <c r="M37" s="18"/>
     </row>
     <row r="38" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="12" t="s">
-        <v>184</v>
+      <c r="A38" s="33" t="s">
+        <v>267</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>30</v>
@@ -7934,6 +8092,9 @@
       </c>
       <c r="C57" s="18" t="s">
         <v>226</v>
+      </c>
+      <c r="D57">
+        <v>408</v>
       </c>
       <c r="E57" s="18"/>
       <c r="F57" s="18"/>
